--- a/figures/LFP_Comparison.xlsx
+++ b/figures/LFP_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete Canfield\Desktop\NeuroResearch\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CE9886-7E3D-40F0-B561-94D6FCEBCBAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B40F7DF-C686-4DC2-A62B-18CBA0EBA787}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23190" yWindow="-120" windowWidth="23310" windowHeight="18240" xr2:uid="{A670333B-57BF-4290-802A-D1D40CFBC556}"/>
   </bookViews>
@@ -1775,6 +1775,131 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> need to check that this experiment implements double connectivity and short term depression.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1676400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAF1B7D-9F65-4DE9-BAD6-C444EBAE8C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="7048500"/>
+          <a:ext cx="2228850" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1514475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3AA652-2AA2-47BA-B959-7D88D17B5BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11649075" y="7277100"/>
+          <a:ext cx="2352675" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;- I dont think</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> this experiment was used in Ali's paper. The closest one too it did not have CA3 recurrent connections enabled.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2098,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FC4CC7-E3A0-440C-98B0-0180D2ACA3E1}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="162" customHeight="1" x14ac:dyDescent="0.25"/>
